--- a/mbs-perturbation/chatty/svm/smote/chatty-svm-poly-results.xlsx
+++ b/mbs-perturbation/chatty/svm/smote/chatty-svm-poly-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.8813559322033898</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.9004329004329005</v>
       </c>
       <c r="D2" t="n">
-        <v>0.588235294117647</v>
+        <v>0.8907922912205567</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5368435911914172</v>
+        <v>0.9132128740824392</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9380530973451328</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4608695652173913</v>
+        <v>0.908695652173913</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6180758017492711</v>
+        <v>0.9521640091116174</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5662525879917184</v>
+        <v>0.9959156785243742</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9917355371900827</v>
+        <v>0.9728506787330317</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5217391304347826</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6837606837606838</v>
+        <v>0.9534368070953437</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8446502835538752</v>
+        <v>0.9877126654064272</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9557522123893806</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4695652173913044</v>
+        <v>0.8782608695652174</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6297376093294461</v>
+        <v>0.9351851851851852</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7530245746691872</v>
+        <v>0.9993194706994329</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.990521327014218</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4608695652173913</v>
+        <v>0.908695652173913</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6309523809523809</v>
+        <v>0.9478458049886621</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9327221172022685</v>
+        <v>0.9918525519848771</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9309543232310731</v>
+        <v>0.9689455875901279</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4778467908902691</v>
+        <v>0.9061735366083192</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6301523539818857</v>
+        <v>0.935884819520273</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7266986309216933</v>
+        <v>0.9776026481395101</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/chatty/svm/smote/chatty-svm-poly-results.xlsx
+++ b/mbs-perturbation/chatty/svm/smote/chatty-svm-poly-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8813559322033898</v>
+        <v>0.7633587786259542</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9004329004329005</v>
+        <v>0.966183574879227</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8907922912205567</v>
+        <v>0.8528784648187633</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9132128740824392</v>
+        <v>0.9117544593088071</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.9136363636363637</v>
       </c>
       <c r="C3" t="n">
-        <v>0.908695652173913</v>
+        <v>0.9710144927536232</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9521640091116174</v>
+        <v>0.9414519906323184</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9959156785243742</v>
+        <v>0.9686687105165366</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9728506787330317</v>
+        <v>0.9609756097560975</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9347826086956522</v>
+        <v>0.9471153846153846</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9534368070953437</v>
+        <v>0.9539951573849879</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9877126654064272</v>
+        <v>0.9825343738387218</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8782608695652174</v>
+        <v>0.9519230769230769</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9351851851851852</v>
+        <v>0.9753694581280787</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9993194706994329</v>
+        <v>0.9992800074321814</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.990521327014218</v>
+        <v>0.9950738916256158</v>
       </c>
       <c r="C6" t="n">
-        <v>0.908695652173913</v>
+        <v>0.9758454106280193</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9478458049886621</v>
+        <v>0.9853658536585366</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9918525519848771</v>
+        <v>0.997666223249084</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9689455875901279</v>
+        <v>0.9266089287288063</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9061735366083192</v>
+        <v>0.9624163879598662</v>
       </c>
       <c r="D7" t="n">
-        <v>0.935884819520273</v>
+        <v>0.941812184924537</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9776026481395101</v>
+        <v>0.9719807548690662</v>
       </c>
     </row>
   </sheetData>
